--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.76192366666666</v>
+        <v>20.88869433333333</v>
       </c>
       <c r="H2">
-        <v>56.285771</v>
+        <v>62.666083</v>
       </c>
       <c r="I2">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="J2">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>79.45695600000001</v>
+        <v>91.233673</v>
       </c>
       <c r="N2">
-        <v>238.370868</v>
+        <v>273.701019</v>
       </c>
       <c r="O2">
-        <v>0.3098915743290337</v>
+        <v>0.3428734898030825</v>
       </c>
       <c r="P2">
-        <v>0.3098915743290338</v>
+        <v>0.3428734898030825</v>
       </c>
       <c r="Q2">
-        <v>1490.765343257692</v>
+        <v>1905.752308204286</v>
       </c>
       <c r="R2">
-        <v>13416.88808931923</v>
+        <v>17151.77077383858</v>
       </c>
       <c r="S2">
-        <v>0.03788304109642747</v>
+        <v>0.02082347209546273</v>
       </c>
       <c r="T2">
-        <v>0.03788304109642748</v>
+        <v>0.02082347209546274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.76192366666666</v>
+        <v>20.88869433333333</v>
       </c>
       <c r="H3">
-        <v>56.285771</v>
+        <v>62.666083</v>
       </c>
       <c r="I3">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="J3">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>492.548049</v>
       </c>
       <c r="O3">
-        <v>0.6403319819152735</v>
+        <v>0.6170297395068509</v>
       </c>
       <c r="P3">
-        <v>0.6403319819152735</v>
+        <v>0.617029739506851</v>
       </c>
       <c r="Q3">
-        <v>3080.382965834531</v>
+        <v>3429.561880013563</v>
       </c>
       <c r="R3">
-        <v>27723.44669251078</v>
+        <v>30866.05692012207</v>
       </c>
       <c r="S3">
-        <v>0.0782780972305398</v>
+        <v>0.03747359286969301</v>
       </c>
       <c r="T3">
-        <v>0.07827809723053981</v>
+        <v>0.03747359286969301</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.76192366666666</v>
+        <v>20.88869433333333</v>
       </c>
       <c r="H4">
-        <v>56.285771</v>
+        <v>62.666083</v>
       </c>
       <c r="I4">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="J4">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.68555166666667</v>
+        <v>10.493566</v>
       </c>
       <c r="N4">
-        <v>38.05665500000001</v>
+        <v>31.480698</v>
       </c>
       <c r="O4">
-        <v>0.04947515957212899</v>
+        <v>0.03943681621695722</v>
       </c>
       <c r="P4">
-        <v>0.04947515957212899</v>
+        <v>0.03943681621695724</v>
       </c>
       <c r="Q4">
-        <v>238.0053520395561</v>
+        <v>219.1968926406593</v>
       </c>
       <c r="R4">
-        <v>2142.048168356005</v>
+        <v>1972.772033765934</v>
       </c>
       <c r="S4">
-        <v>0.006048146056830913</v>
+        <v>0.00239508584492588</v>
       </c>
       <c r="T4">
-        <v>0.006048146056830915</v>
+        <v>0.002395085844925881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.76192366666666</v>
+        <v>20.88869433333333</v>
       </c>
       <c r="H5">
-        <v>56.285771</v>
+        <v>62.666083</v>
       </c>
       <c r="I5">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="J5">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07725</v>
+        <v>0.1756043333333333</v>
       </c>
       <c r="N5">
-        <v>0.23175</v>
+        <v>0.526813</v>
       </c>
       <c r="O5">
-        <v>0.0003012841835637129</v>
+        <v>0.0006599544731093284</v>
       </c>
       <c r="P5">
-        <v>0.0003012841835637129</v>
+        <v>0.0006599544731093285</v>
       </c>
       <c r="Q5">
-        <v>1.44935860325</v>
+        <v>3.668145242608778</v>
       </c>
       <c r="R5">
-        <v>13.04422742925</v>
+        <v>33.013307183479</v>
       </c>
       <c r="S5">
-        <v>3.683082101331722E-05</v>
+        <v>4.008050772009369E-05</v>
       </c>
       <c r="T5">
-        <v>3.683082101331723E-05</v>
+        <v>4.00805077200937E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>115.794365</v>
       </c>
       <c r="I6">
-        <v>0.2514918252404856</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="J6">
-        <v>0.2514918252404857</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.45695600000001</v>
+        <v>91.233673</v>
       </c>
       <c r="N6">
-        <v>238.370868</v>
+        <v>273.701019</v>
       </c>
       <c r="O6">
-        <v>0.3098915743290337</v>
+        <v>0.3428734898030825</v>
       </c>
       <c r="P6">
-        <v>0.3098915743290338</v>
+        <v>0.3428734898030825</v>
       </c>
       <c r="Q6">
-        <v>3066.88925495098</v>
+        <v>3521.448410550881</v>
       </c>
       <c r="R6">
-        <v>27602.00329455882</v>
+        <v>31693.03569495793</v>
       </c>
       <c r="S6">
-        <v>0.07793519765465631</v>
+        <v>0.03847760403964177</v>
       </c>
       <c r="T6">
-        <v>0.07793519765465635</v>
+        <v>0.03847760403964177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>115.794365</v>
       </c>
       <c r="I7">
-        <v>0.2514918252404856</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="J7">
-        <v>0.2514918252404857</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>492.548049</v>
       </c>
       <c r="O7">
-        <v>0.6403319819152735</v>
+        <v>0.6170297395068509</v>
       </c>
       <c r="P7">
-        <v>0.6403319819152735</v>
+        <v>0.617029739506851</v>
       </c>
       <c r="Q7">
         <v>6337.143173993764</v>
@@ -883,10 +883,10 @@
         <v>57034.28856594388</v>
       </c>
       <c r="S7">
-        <v>0.1610382588917298</v>
+        <v>0.06924369105078147</v>
       </c>
       <c r="T7">
-        <v>0.1610382588917298</v>
+        <v>0.0692436910507815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>115.794365</v>
       </c>
       <c r="I8">
-        <v>0.2514918252404856</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="J8">
-        <v>0.2514918252404857</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.68555166666667</v>
+        <v>10.493566</v>
       </c>
       <c r="N8">
-        <v>38.05665500000001</v>
+        <v>31.480698</v>
       </c>
       <c r="O8">
-        <v>0.04947515957212899</v>
+        <v>0.03943681621695722</v>
       </c>
       <c r="P8">
-        <v>0.04947515957212899</v>
+        <v>0.03943681621695724</v>
       </c>
       <c r="Q8">
-        <v>489.6384666387862</v>
+        <v>405.0319371851966</v>
       </c>
       <c r="R8">
-        <v>4406.746199749075</v>
+        <v>3645.28743466677</v>
       </c>
       <c r="S8">
-        <v>0.012442598184859</v>
+        <v>0.004425638738800392</v>
       </c>
       <c r="T8">
-        <v>0.01244259818485901</v>
+        <v>0.004425638738800395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>115.794365</v>
       </c>
       <c r="I9">
-        <v>0.2514918252404856</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="J9">
-        <v>0.2514918252404857</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07725</v>
+        <v>0.1756043333333333</v>
       </c>
       <c r="N9">
-        <v>0.23175</v>
+        <v>0.526813</v>
       </c>
       <c r="O9">
-        <v>0.0003012841835637129</v>
+        <v>0.0006599544731093284</v>
       </c>
       <c r="P9">
-        <v>0.0003012841835637129</v>
+        <v>0.0006599544731093285</v>
       </c>
       <c r="Q9">
-        <v>2.98170489875</v>
+        <v>6.777997423193889</v>
       </c>
       <c r="R9">
-        <v>26.83534408875</v>
+        <v>61.001976808745</v>
       </c>
       <c r="S9">
-        <v>7.577050924052766E-05</v>
+        <v>7.406074734758587E-05</v>
       </c>
       <c r="T9">
-        <v>7.57705092405277E-05</v>
+        <v>7.406074734758589E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>89.42491666666668</v>
+        <v>277.3327996666667</v>
       </c>
       <c r="H10">
-        <v>268.27475</v>
+        <v>831.9983990000001</v>
       </c>
       <c r="I10">
-        <v>0.5826613975855818</v>
+        <v>0.8063232422570387</v>
       </c>
       <c r="J10">
-        <v>0.5826613975855819</v>
+        <v>0.8063232422570388</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>79.45695600000001</v>
+        <v>91.233673</v>
       </c>
       <c r="N10">
-        <v>238.370868</v>
+        <v>273.701019</v>
       </c>
       <c r="O10">
-        <v>0.3098915743290337</v>
+        <v>0.3428734898030825</v>
       </c>
       <c r="P10">
-        <v>0.3098915743290338</v>
+        <v>0.3428734898030825</v>
       </c>
       <c r="Q10">
-        <v>7105.431668887001</v>
+        <v>25302.08995696318</v>
       </c>
       <c r="R10">
-        <v>63948.88501998302</v>
+        <v>227718.8096126686</v>
       </c>
       <c r="S10">
-        <v>0.180561857798551</v>
+        <v>0.2764668639820071</v>
       </c>
       <c r="T10">
-        <v>0.1805618577985511</v>
+        <v>0.2764668639820072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>89.42491666666668</v>
+        <v>277.3327996666667</v>
       </c>
       <c r="H11">
-        <v>268.27475</v>
+        <v>831.9983990000001</v>
       </c>
       <c r="I11">
-        <v>0.5826613975855818</v>
+        <v>0.8063232422570387</v>
       </c>
       <c r="J11">
-        <v>0.5826613975855819</v>
+        <v>0.8063232422570388</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>492.548049</v>
       </c>
       <c r="O11">
-        <v>0.6403319819152735</v>
+        <v>0.6170297395068509</v>
       </c>
       <c r="P11">
-        <v>0.6403319819152735</v>
+        <v>0.617029739506851</v>
       </c>
       <c r="Q11">
-        <v>14682.02274538475</v>
+        <v>45533.24313317484</v>
       </c>
       <c r="R11">
-        <v>132138.2047084628</v>
+        <v>409799.1881985736</v>
       </c>
       <c r="S11">
-        <v>0.3730967275014987</v>
+        <v>0.49752542012818</v>
       </c>
       <c r="T11">
-        <v>0.3730967275014988</v>
+        <v>0.4975254201281802</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.42491666666668</v>
+        <v>277.3327996666667</v>
       </c>
       <c r="H12">
-        <v>268.27475</v>
+        <v>831.9983990000001</v>
       </c>
       <c r="I12">
-        <v>0.5826613975855818</v>
+        <v>0.8063232422570387</v>
       </c>
       <c r="J12">
-        <v>0.5826613975855819</v>
+        <v>0.8063232422570388</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.68555166666667</v>
+        <v>10.493566</v>
       </c>
       <c r="N12">
-        <v>38.05665500000001</v>
+        <v>31.480698</v>
       </c>
       <c r="O12">
-        <v>0.04947515957212899</v>
+        <v>0.03943681621695722</v>
       </c>
       <c r="P12">
-        <v>0.04947515957212899</v>
+        <v>0.03943681621695724</v>
       </c>
       <c r="Q12">
-        <v>1134.404400662361</v>
+        <v>2910.210037266945</v>
       </c>
       <c r="R12">
-        <v>10209.63960596125</v>
+        <v>26191.89033540251</v>
       </c>
       <c r="S12">
-        <v>0.02882726562206635</v>
+        <v>0.03179882151635191</v>
       </c>
       <c r="T12">
-        <v>0.02882726562206636</v>
+        <v>0.03179882151635192</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.42491666666668</v>
+        <v>277.3327996666667</v>
       </c>
       <c r="H13">
-        <v>268.27475</v>
+        <v>831.9983990000001</v>
       </c>
       <c r="I13">
-        <v>0.5826613975855818</v>
+        <v>0.8063232422570387</v>
       </c>
       <c r="J13">
-        <v>0.5826613975855819</v>
+        <v>0.8063232422570388</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07725</v>
+        <v>0.1756043333333333</v>
       </c>
       <c r="N13">
-        <v>0.23175</v>
+        <v>0.526813</v>
       </c>
       <c r="O13">
-        <v>0.0003012841835637129</v>
+        <v>0.0006599544731093284</v>
       </c>
       <c r="P13">
-        <v>0.0003012841835637129</v>
+        <v>0.0006599544731093285</v>
       </c>
       <c r="Q13">
-        <v>6.908074812500001</v>
+        <v>48.70084139693189</v>
       </c>
       <c r="R13">
-        <v>62.17267331250001</v>
+        <v>438.307572572387</v>
       </c>
       <c r="S13">
-        <v>0.0001755466634656639</v>
+        <v>0.0005321366304995494</v>
       </c>
       <c r="T13">
-        <v>0.000175546663465664</v>
+        <v>0.0005321366304995495</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.691683333333333</v>
+        <v>7.127805333333332</v>
       </c>
       <c r="H14">
-        <v>20.07505</v>
+        <v>21.383416</v>
       </c>
       <c r="I14">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="J14">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>79.45695600000001</v>
+        <v>91.233673</v>
       </c>
       <c r="N14">
-        <v>238.370868</v>
+        <v>273.701019</v>
       </c>
       <c r="O14">
-        <v>0.3098915743290337</v>
+        <v>0.3428734898030825</v>
       </c>
       <c r="P14">
-        <v>0.3098915743290338</v>
+        <v>0.3428734898030825</v>
       </c>
       <c r="Q14">
-        <v>531.7007881826</v>
+        <v>650.2958609889891</v>
       </c>
       <c r="R14">
-        <v>4785.3070936434</v>
+        <v>5852.662748900902</v>
       </c>
       <c r="S14">
-        <v>0.01351147777939892</v>
+        <v>0.007105549685970818</v>
       </c>
       <c r="T14">
-        <v>0.01351147777939893</v>
+        <v>0.00710554968597082</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.691683333333333</v>
+        <v>7.127805333333332</v>
       </c>
       <c r="H15">
-        <v>20.07505</v>
+        <v>21.383416</v>
       </c>
       <c r="I15">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="J15">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>492.548049</v>
       </c>
       <c r="O15">
-        <v>0.6403319819152735</v>
+        <v>0.6170297395068509</v>
       </c>
       <c r="P15">
-        <v>0.6403319819152735</v>
+        <v>0.617029739506851</v>
       </c>
       <c r="Q15">
-        <v>1098.65852345305</v>
+        <v>1170.262203528376</v>
       </c>
       <c r="R15">
-        <v>9887.926711077449</v>
+        <v>10532.35983175538</v>
       </c>
       <c r="S15">
-        <v>0.02791889829150511</v>
+        <v>0.01278703545819641</v>
       </c>
       <c r="T15">
-        <v>0.02791889829150512</v>
+        <v>0.01278703545819641</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.691683333333333</v>
+        <v>7.127805333333332</v>
       </c>
       <c r="H16">
-        <v>20.07505</v>
+        <v>21.383416</v>
       </c>
       <c r="I16">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="J16">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.68555166666667</v>
+        <v>10.493566</v>
       </c>
       <c r="N16">
-        <v>38.05665500000001</v>
+        <v>31.480698</v>
       </c>
       <c r="O16">
-        <v>0.04947515957212899</v>
+        <v>0.03943681621695722</v>
       </c>
       <c r="P16">
-        <v>0.04947515957212899</v>
+        <v>0.03943681621695724</v>
       </c>
       <c r="Q16">
-        <v>84.88769466197223</v>
+        <v>74.79609570048531</v>
       </c>
       <c r="R16">
-        <v>763.9892519577501</v>
+        <v>673.1648613043679</v>
       </c>
       <c r="S16">
-        <v>0.002157149708372715</v>
+        <v>0.0008172701168790391</v>
       </c>
       <c r="T16">
-        <v>0.002157149708372716</v>
+        <v>0.0008172701168790396</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.691683333333333</v>
+        <v>7.127805333333332</v>
       </c>
       <c r="H17">
-        <v>20.07505</v>
+        <v>21.383416</v>
       </c>
       <c r="I17">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="J17">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.07725</v>
+        <v>0.1756043333333333</v>
       </c>
       <c r="N17">
-        <v>0.23175</v>
+        <v>0.526813</v>
       </c>
       <c r="O17">
-        <v>0.0003012841835637129</v>
+        <v>0.0006599544731093284</v>
       </c>
       <c r="P17">
-        <v>0.0003012841835637129</v>
+        <v>0.0006599544731093285</v>
       </c>
       <c r="Q17">
-        <v>0.5169325374999999</v>
+        <v>1.251673503689777</v>
       </c>
       <c r="R17">
-        <v>4.6523928375</v>
+        <v>11.265061533208</v>
       </c>
       <c r="S17">
-        <v>1.313618984420403E-05</v>
+        <v>1.367658754209952E-05</v>
       </c>
       <c r="T17">
-        <v>1.313618984420404E-05</v>
+        <v>1.367658754209953E-05</v>
       </c>
     </row>
   </sheetData>
